--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongwook\Documents\LandmarkDetector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6CA524CD-C426-4ABA-AF60-A714CDB2A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849EE36-BC8E-46F0-9955-23EF5E8961D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="2" r:id="rId1"/>
     <sheet name="Difference" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -13949,16 +13960,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>226967</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>105047</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>196487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13985,16 +13996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321673</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>170361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>199753</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14021,16 +14032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>319495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>197575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53883</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14057,16 +14068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>197576</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>194310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>293370</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>75656</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>64769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14390,10 +14401,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
@@ -14712,7 +14723,7 @@
         <v>3.4911590000000001</v>
       </c>
       <c r="AZ2">
-        <f>AVERAGE(B2:AY2)</f>
+        <f t="shared" ref="AZ2:AZ8" si="0">AVERAGE(B2:AY2)</f>
         <v>15.499372308</v>
       </c>
       <c r="BA2">
@@ -14875,11 +14886,11 @@
         <v>3.7787175</v>
       </c>
       <c r="AZ3">
-        <f>AVERAGE(B3:AY3)</f>
+        <f t="shared" si="0"/>
         <v>11.63643837</v>
       </c>
       <c r="BA3">
-        <f t="shared" ref="BA3:BA8" si="0">_xlfn.STDEV.P(B3:AY3)</f>
+        <f t="shared" ref="BA3:BA8" si="1">_xlfn.STDEV.P(B3:AY3)</f>
         <v>6.8401369430439845</v>
       </c>
     </row>
@@ -15038,11 +15049,11 @@
         <v>5.9232224999999996</v>
       </c>
       <c r="AZ4">
-        <f>AVERAGE(B4:AY4)</f>
+        <f t="shared" si="0"/>
         <v>11.297360948</v>
       </c>
       <c r="BA4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7515374871523068</v>
       </c>
     </row>
@@ -15201,11 +15212,11 @@
         <v>1.0199643</v>
       </c>
       <c r="AZ5">
-        <f>AVERAGE(B5:AY5)</f>
+        <f t="shared" si="0"/>
         <v>12.073030088000003</v>
       </c>
       <c r="BA5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2972945485436762</v>
       </c>
     </row>
@@ -15364,11 +15375,11 @@
         <v>6.0097246000000002</v>
       </c>
       <c r="AZ6">
-        <f>AVERAGE(B6:AY6)</f>
+        <f t="shared" si="0"/>
         <v>13.830941206</v>
       </c>
       <c r="BA6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2468377508150326</v>
       </c>
     </row>
@@ -15527,11 +15538,11 @@
         <v>4.9816355999999997</v>
       </c>
       <c r="AZ7">
-        <f>AVERAGE(B7:AY7)</f>
+        <f t="shared" si="0"/>
         <v>15.99471313000001</v>
       </c>
       <c r="BA7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0362781596871695</v>
       </c>
     </row>
@@ -15690,11 +15701,11 @@
         <v>4.2007374999999998</v>
       </c>
       <c r="AZ8">
-        <f>AVERAGE(B8:AY8)</f>
+        <f t="shared" si="0"/>
         <v>13.388642703999999</v>
       </c>
       <c r="BA8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4257752771942389</v>
       </c>
     </row>
@@ -15706,11 +15717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R49" sqref="R42:W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -17832,14 +17843,14 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AW4:AW6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AW4:AW6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"중역, 관리자, 위치, 길잡이, 세로줄, 컨설턴트, 공석"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="직원 ID" prompt="각 직원의 고유 ID를 입력하세요." sqref="AS3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="이름" prompt="셰이프에 표시할 직원 이름을 입력합니다." sqref="AT3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="제목" prompt="직원 직함/역할이 셰이프로 표시됩니다." sqref="AU3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="관리자 ID" prompt="관리자의 직원 ID를 입력하십시오. 이 ID는 직원 ID 열에 있어야 합니다." sqref="AV3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="역할 유형" prompt="직원을 가장 잘 나타내는 역할을 선택합니다. 이렇게 하면 셰이프의 색이 변경됩니다." sqref="AW3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="직원 ID" prompt="각 직원의 고유 ID를 입력하세요." sqref="AS3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="이름" prompt="셰이프에 표시할 직원 이름을 입력합니다." sqref="AT3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="제목" prompt="직원 직함/역할이 셰이프로 표시됩니다." sqref="AU3" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="관리자 ID" prompt="관리자의 직원 ID를 입력하십시오. 이 ID는 직원 ID 열에 있어야 합니다." sqref="AV3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="역할 유형" prompt="직원을 가장 잘 나타내는 역할을 선택합니다. 이렇게 하면 셰이프의 색이 변경됩니다." sqref="AW3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
